--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.296436</v>
+        <v>0.3288063333333333</v>
       </c>
       <c r="H2">
-        <v>3.889308</v>
+        <v>0.9864189999999999</v>
       </c>
       <c r="I2">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="J2">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.453045666666667</v>
+        <v>1.522526333333333</v>
       </c>
       <c r="N2">
-        <v>13.359137</v>
+        <v>4.567579</v>
       </c>
       <c r="O2">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="P2">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="Q2">
-        <v>5.773088711910667</v>
+        <v>0.5006163010667778</v>
       </c>
       <c r="R2">
-        <v>51.957798407196</v>
+        <v>4.505546709601</v>
       </c>
       <c r="S2">
-        <v>0.08545150761707385</v>
+        <v>0.01179432165365393</v>
       </c>
       <c r="T2">
-        <v>0.08545150761707382</v>
+        <v>0.01179432165365393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.296436</v>
+        <v>0.3288063333333333</v>
       </c>
       <c r="H3">
-        <v>3.889308</v>
+        <v>0.9864189999999999</v>
       </c>
       <c r="I3">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="J3">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.450299000000001</v>
       </c>
       <c r="O3">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="P3">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="Q3">
-        <v>4.083902611454667</v>
+        <v>1.035772721031222</v>
       </c>
       <c r="R3">
-        <v>36.755123503092</v>
+        <v>9.321954489281001</v>
       </c>
       <c r="S3">
-        <v>0.06044868744007382</v>
+        <v>0.02440239481992628</v>
       </c>
       <c r="T3">
-        <v>0.0604486874400738</v>
+        <v>0.02440239481992628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.296436</v>
+        <v>0.3288063333333333</v>
       </c>
       <c r="H4">
-        <v>3.889308</v>
+        <v>0.9864189999999999</v>
       </c>
       <c r="I4">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="J4">
-        <v>0.1944674516316147</v>
+        <v>0.05575527297994041</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.530935</v>
+        <v>2.524809666666667</v>
       </c>
       <c r="N4">
-        <v>7.592805</v>
+        <v>7.574429</v>
       </c>
       <c r="O4">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657161</v>
       </c>
       <c r="P4">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657162</v>
       </c>
       <c r="Q4">
-        <v>3.28119524766</v>
+        <v>0.8301734088612222</v>
       </c>
       <c r="R4">
-        <v>29.53075722894</v>
+        <v>7.471560679751</v>
       </c>
       <c r="S4">
-        <v>0.04856725657446707</v>
+        <v>0.01955855650636021</v>
       </c>
       <c r="T4">
-        <v>0.04856725657446707</v>
+        <v>0.01955855650636021</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.511827</v>
       </c>
       <c r="I5">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="J5">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.453045666666667</v>
+        <v>1.522526333333333</v>
       </c>
       <c r="N5">
-        <v>13.359137</v>
+        <v>4.567579</v>
       </c>
       <c r="O5">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="P5">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="Q5">
-        <v>8.181472445922113</v>
+        <v>2.797300584092556</v>
       </c>
       <c r="R5">
-        <v>73.633252013299</v>
+        <v>25.175705256833</v>
       </c>
       <c r="S5">
-        <v>0.1210996729686858</v>
+        <v>0.06590329316172373</v>
       </c>
       <c r="T5">
-        <v>0.1210996729686857</v>
+        <v>0.06590329316172373</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.511827</v>
       </c>
       <c r="I6">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="J6">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.450299000000001</v>
       </c>
       <c r="O6">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="P6">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="Q6">
         <v>5.787601465141446</v>
@@ -818,10 +818,10 @@
         <v>52.08841318627301</v>
       </c>
       <c r="S6">
-        <v>0.08566632098737353</v>
+        <v>0.1363535968317011</v>
       </c>
       <c r="T6">
-        <v>0.08566632098737352</v>
+        <v>0.1363535968317011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.511827</v>
       </c>
       <c r="I7">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="J7">
-        <v>0.2755942575194169</v>
+        <v>0.3115445049245869</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.530935</v>
+        <v>2.524809666666667</v>
       </c>
       <c r="N7">
-        <v>7.592805</v>
+        <v>7.574429</v>
       </c>
       <c r="O7">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657161</v>
       </c>
       <c r="P7">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657162</v>
       </c>
       <c r="Q7">
-        <v>4.650025289415</v>
+        <v>4.638771363531444</v>
       </c>
       <c r="R7">
-        <v>41.850227604735</v>
+        <v>41.748942271783</v>
       </c>
       <c r="S7">
-        <v>0.06882826356335757</v>
+        <v>0.109287614931162</v>
       </c>
       <c r="T7">
-        <v>0.06882826356335757</v>
+        <v>0.109287614931162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.532884666666666</v>
+        <v>3.731231666666667</v>
       </c>
       <c r="H8">
-        <v>10.598654</v>
+        <v>11.193695</v>
       </c>
       <c r="I8">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="J8">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.453045666666667</v>
+        <v>1.522526333333333</v>
       </c>
       <c r="N8">
-        <v>13.359137</v>
+        <v>4.567579</v>
       </c>
       <c r="O8">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="P8">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="Q8">
-        <v>15.73209675573311</v>
+        <v>5.680898468267224</v>
       </c>
       <c r="R8">
-        <v>141.588870801598</v>
+        <v>51.12808621440501</v>
       </c>
       <c r="S8">
-        <v>0.2328617232195882</v>
+        <v>0.1338397165128588</v>
       </c>
       <c r="T8">
-        <v>0.2328617232195882</v>
+        <v>0.1338397165128588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.532884666666666</v>
+        <v>3.731231666666667</v>
       </c>
       <c r="H9">
-        <v>10.598654</v>
+        <v>11.193695</v>
       </c>
       <c r="I9">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="J9">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.450299000000001</v>
       </c>
       <c r="O9">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="P9">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="Q9">
-        <v>11.12893881083845</v>
+        <v>11.75375162942278</v>
       </c>
       <c r="R9">
-        <v>100.160449297546</v>
+        <v>105.783764664805</v>
       </c>
       <c r="S9">
-        <v>0.1647271758707431</v>
+        <v>0.27691373025442</v>
       </c>
       <c r="T9">
-        <v>0.1647271758707431</v>
+        <v>0.27691373025442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.532884666666666</v>
+        <v>3.731231666666667</v>
       </c>
       <c r="H10">
-        <v>10.598654</v>
+        <v>11.193695</v>
       </c>
       <c r="I10">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="J10">
-        <v>0.5299382908489685</v>
+        <v>0.6327002220954728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.530935</v>
+        <v>2.524809666666667</v>
       </c>
       <c r="N10">
-        <v>7.592805</v>
+        <v>7.574429</v>
       </c>
       <c r="O10">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657161</v>
       </c>
       <c r="P10">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657162</v>
       </c>
       <c r="Q10">
-        <v>8.94150145383</v>
+        <v>9.420649780572779</v>
       </c>
       <c r="R10">
-        <v>80.47351308447</v>
+        <v>84.78584802515502</v>
       </c>
       <c r="S10">
-        <v>0.1323493917586372</v>
+        <v>0.221946775328194</v>
       </c>
       <c r="T10">
-        <v>0.1323493917586372</v>
+        <v>0.221946775328194</v>
       </c>
     </row>
   </sheetData>
